--- a/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
+++ b/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9495"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RCP Timings Chart" sheetId="5" r:id="rId1"/>
-    <sheet name="RCP Raw Timings" sheetId="6" r:id="rId2"/>
-    <sheet name="RCP GCC" sheetId="3" r:id="rId3"/>
-    <sheet name="RCP ICC" sheetId="2" r:id="rId4"/>
-    <sheet name="RCP MSVC" sheetId="1" r:id="rId5"/>
+    <sheet name="RCP Alloc Chart" sheetId="8" r:id="rId2"/>
+    <sheet name="RCP Timings" sheetId="6" r:id="rId3"/>
+    <sheet name="RCP GCC" sheetId="3" r:id="rId4"/>
+    <sheet name="RCP ICC" sheetId="2" r:id="rId5"/>
+    <sheet name="RCP MSVC" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Teuchos_RCP_PerformanceTest" localSheetId="3">'RCP ICC'!$A$1:$A$93</definedName>
-    <definedName name="Teuchos_RCP_PerformanceTest" localSheetId="4">'RCP MSVC'!$A$1:$A$93</definedName>
+    <definedName name="Teuchos_RCP_PerformanceTest" localSheetId="4">'RCP ICC'!$A$1:$A$93</definedName>
+    <definedName name="Teuchos_RCP_PerformanceTest" localSheetId="5">'RCP MSVC'!$A$1:$A$93</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="74">
   <si>
     <t>***</t>
   </si>
@@ -229,9 +230,6 @@
     <t>Deref</t>
   </si>
   <si>
-    <t>Member</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -241,6 +239,9 @@
     <t>Assign</t>
   </si>
   <si>
+    <t>GCC 4.1.2</t>
+  </si>
+  <si>
     <t>ICC 10.1</t>
   </si>
   <si>
@@ -248,6 +249,21 @@
   </si>
   <si>
     <t>MSVC++ 2009</t>
+  </si>
+  <si>
+    <t>ArrowOp</t>
+  </si>
+  <si>
+    <t>Alloc/Dealloc for objSize = 1</t>
+  </si>
+  <si>
+    <t>Alloc/Dealloc realtive to raw</t>
+  </si>
+  <si>
+    <t>objectSize</t>
+  </si>
+  <si>
+    <t>Zero overhead</t>
   </si>
 </sst>
 </file>
@@ -320,7 +336,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$4</c:f>
+              <c:f>'RCP Timings'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -331,14 +347,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$3:$D$3</c:f>
+              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -348,7 +364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$4:$D$4</c:f>
+              <c:f>'RCP Timings'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -370,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$5</c:f>
+              <c:f>'RCP Timings'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -381,14 +397,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$3:$D$3</c:f>
+              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -398,7 +414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$5:$D$5</c:f>
+              <c:f>'RCP Timings'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -420,7 +436,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$6</c:f>
+              <c:f>'RCP Timings'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -431,14 +447,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$3:$D$3</c:f>
+              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -448,7 +464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$6:$D$6</c:f>
+              <c:f>'RCP Timings'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -489,6 +505,24 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -541,7 +575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$10</c:f>
+              <c:f>'RCP Timings'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -552,14 +586,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$9:$D$9</c:f>
+              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -569,7 +603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$10:$D$10</c:f>
+              <c:f>'RCP Timings'!$B$10:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -591,7 +625,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$11</c:f>
+              <c:f>'RCP Timings'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -602,14 +636,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$9:$D$9</c:f>
+              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -619,7 +653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$11:$D$11</c:f>
+              <c:f>'RCP Timings'!$B$11:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -641,7 +675,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$12</c:f>
+              <c:f>'RCP Timings'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -652,14 +686,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$9:$D$9</c:f>
+              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -669,7 +703,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$12:$D$12</c:f>
+              <c:f>'RCP Timings'!$B$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -710,6 +744,24 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -762,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$16</c:f>
+              <c:f>'RCP Timings'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -773,14 +825,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$15:$D$15</c:f>
+              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -790,7 +842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$16:$D$16</c:f>
+              <c:f>'RCP Timings'!$B$16:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -812,7 +864,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$17</c:f>
+              <c:f>'RCP Timings'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -823,14 +875,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$15:$D$15</c:f>
+              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -840,7 +892,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$17:$D$17</c:f>
+              <c:f>'RCP Timings'!$B$17:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -862,7 +914,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$A$18</c:f>
+              <c:f>'RCP Timings'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,14 +925,14 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'RCP Raw Timings'!$B$15:$D$15</c:f>
+              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Deref</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Member</c:v>
+                  <c:v>ArrowOp</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Assign</c:v>
@@ -890,7 +942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RCP Raw Timings'!$B$18:$D$18</c:f>
+              <c:f>'RCP Timings'!$B$18:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -930,6 +982,24 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -955,6 +1025,708 @@
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17064495941566024"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.68670365492569652"/>
+          <c:h val="0.71026210265383494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GCC 4.1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICC 10.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSVC++ 2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.4074620000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.157942E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6285909999999998E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GCC 4.1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICC 10.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSVC++ 2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.215497E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.941906E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.641363E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GCC 4.1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICC 10.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSVC++ 2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.398462E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0413790000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1174530000000001E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="94251264"/>
+        <c:axId val="101491456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="94251264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101491456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101491456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94251264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17671572855513201"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.57701807592072196"/>
+          <c:h val="0.61303988043161273"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GCC 4.1.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$C$28:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6409088565017274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6635825528194206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5992154756297281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4052219094889065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1759530036907346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1090813109727911</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0359068265932216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0107305425901125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0040614077176335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICC 10.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$D$28:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7629371764734332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7002625963809082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7536691620494176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6386595064330598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.280041668068433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2368421611777949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0733737258023466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0213468607064271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.009381379295619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSVC++ 2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$E$28:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5664106740074817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7276507519980997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7318179403512215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6170214537568275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3829787577483061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1515153069283774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0303030116565666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0285711143428313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero overhead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$A$28:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$28:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="101493376"/>
+        <c:axId val="94382720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101493376"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>objectSize</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94382720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94382720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU time relative to raw new/delete</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101493376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1226,6 +1998,291 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="2438399"/>
+          <a:ext cx="4067175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a) Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> to dynamically alloc and dealloc std::vector&lt;double&gt;(1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="5295899"/>
+          <a:ext cx="5048250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>b) Time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> to dynamically alloc and dealloc std::vector&lt;double&gt;(objectSize) using RCP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,15 +2594,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1558,15 +2635,15 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <f>'RCP GCC'!$C$43</f>
@@ -1583,7 +2660,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <f>'RCP GCC'!$D$43</f>
@@ -1625,15 +2702,15 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
         <f>'RCP ICC'!$C$43</f>
@@ -1650,7 +2727,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1">
         <f>'RCP ICC'!$D$43</f>
@@ -1692,15 +2769,15 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1">
         <f>'RCP MSVC'!$C$43</f>
@@ -1715,9 +2792,9 @@
         <v>1.442698E-10</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <f>'RCP MSVC'!$D$43</f>
@@ -1732,7 +2809,7 @@
         <v>4.1838250000000001E-9</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1747,6 +2824,290 @@
       <c r="D18" s="1">
         <f>'RCP MSVC'!$E$78</f>
         <v>1.269575E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1">
+        <f>'RCP GCC'!$C$21</f>
+        <v>7.4074620000000005E-8</v>
+      </c>
+      <c r="C22" s="1">
+        <f>'RCP ICC'!$C$21</f>
+        <v>1.157942E-7</v>
+      </c>
+      <c r="D22" s="1">
+        <f>'RCP MSVC'!$C$21</f>
+        <v>2.6285909999999998E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1">
+        <f>'RCP GCC'!$D$21</f>
+        <v>1.215497E-7</v>
+      </c>
+      <c r="C23" s="1">
+        <f>'RCP ICC'!$D$21</f>
+        <v>1.941906E-7</v>
+      </c>
+      <c r="D23" s="1">
+        <f>'RCP MSVC'!$D$21</f>
+        <v>3.641363E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <f>'RCP GCC'!$E$21</f>
+        <v>1.398462E-7</v>
+      </c>
+      <c r="C24" s="1">
+        <f>'RCP ICC'!$E$21</f>
+        <v>2.0413790000000001E-7</v>
+      </c>
+      <c r="D24" s="1">
+        <f>'RCP MSVC'!$E$21</f>
+        <v>4.1174530000000001E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f>'RCP GCC'!A21</f>
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <f>'RCP GCC'!D21/'RCP GCC'!C21</f>
+        <v>1.6409088565017274</v>
+      </c>
+      <c r="D28" s="1">
+        <f>'RCP ICC'!E21/'RCP ICC'!C21</f>
+        <v>1.7629371764734332</v>
+      </c>
+      <c r="E28" s="1">
+        <f>'RCP MSVC'!E21/'RCP MSVC'!C21</f>
+        <v>1.5664106740074817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <f>'RCP GCC'!A22</f>
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <f>'RCP GCC'!D22/'RCP GCC'!C22</f>
+        <v>1.6635825528194206</v>
+      </c>
+      <c r="D29" s="1">
+        <f>'RCP ICC'!E22/'RCP ICC'!C22</f>
+        <v>1.7002625963809082</v>
+      </c>
+      <c r="E29" s="1">
+        <f>'RCP MSVC'!E22/'RCP MSVC'!C22</f>
+        <v>1.7276507519980997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <f>'RCP GCC'!A23</f>
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <f>'RCP GCC'!D23/'RCP GCC'!C23</f>
+        <v>1.5992154756297281</v>
+      </c>
+      <c r="D30" s="1">
+        <f>'RCP ICC'!E23/'RCP ICC'!C23</f>
+        <v>1.7536691620494176</v>
+      </c>
+      <c r="E30" s="1">
+        <f>'RCP MSVC'!E23/'RCP MSVC'!C23</f>
+        <v>1.7318179403512215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <f>'RCP GCC'!A24</f>
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <f>'RCP GCC'!D24/'RCP GCC'!C24</f>
+        <v>1.4052219094889065</v>
+      </c>
+      <c r="D31" s="1">
+        <f>'RCP ICC'!E24/'RCP ICC'!C24</f>
+        <v>1.6386595064330598</v>
+      </c>
+      <c r="E31" s="1">
+        <f>'RCP MSVC'!E24/'RCP MSVC'!C24</f>
+        <v>1.6170214537568275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <f>'RCP GCC'!A25</f>
+        <v>256</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <f>'RCP GCC'!D25/'RCP GCC'!C25</f>
+        <v>1.1759530036907346</v>
+      </c>
+      <c r="D32" s="1">
+        <f>'RCP ICC'!E25/'RCP ICC'!C25</f>
+        <v>1.280041668068433</v>
+      </c>
+      <c r="E32" s="1">
+        <f>'RCP MSVC'!E25/'RCP MSVC'!C25</f>
+        <v>1.3829787577483061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f>'RCP GCC'!A26</f>
+        <v>1024</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <f>'RCP GCC'!D26/'RCP GCC'!C26</f>
+        <v>1.1090813109727911</v>
+      </c>
+      <c r="D33" s="1">
+        <f>'RCP ICC'!E26/'RCP ICC'!C26</f>
+        <v>1.2368421611777949</v>
+      </c>
+      <c r="E33" s="1">
+        <f>'RCP MSVC'!E26/'RCP MSVC'!C26</f>
+        <v>1.1515153069283774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <f>'RCP GCC'!A27</f>
+        <v>4096</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <f>'RCP GCC'!D27/'RCP GCC'!C27</f>
+        <v>1.0359068265932216</v>
+      </c>
+      <c r="D34" s="1">
+        <f>'RCP ICC'!E27/'RCP ICC'!C27</f>
+        <v>1.0733737258023466</v>
+      </c>
+      <c r="E34" s="1">
+        <f>'RCP MSVC'!E27/'RCP MSVC'!C27</f>
+        <v>1.0303030116565666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f>'RCP GCC'!A28</f>
+        <v>16384</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <f>'RCP GCC'!D28/'RCP GCC'!C28</f>
+        <v>1.0107305425901125</v>
+      </c>
+      <c r="D35" s="1">
+        <f>'RCP ICC'!E28/'RCP ICC'!C28</f>
+        <v>1.0213468607064271</v>
+      </c>
+      <c r="E35" s="1">
+        <f>'RCP MSVC'!E28/'RCP MSVC'!C28</f>
+        <v>1.0285711143428313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f>'RCP GCC'!A29</f>
+        <v>65536</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <f>'RCP GCC'!D29/'RCP GCC'!C29</f>
+        <v>1.0040614077176335</v>
+      </c>
+      <c r="D36" s="1">
+        <f>'RCP ICC'!E29/'RCP ICC'!C29</f>
+        <v>1.009381379295619</v>
+      </c>
+      <c r="E36" s="1">
+        <f>'RCP MSVC'!E29/'RCP MSVC'!C29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="str">
+        <f>'RCP GCC'!A32</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -1754,12 +3115,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2812,12 +4173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3871,12 +5232,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
+++ b/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9495" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RCP Timings Chart" sheetId="5" r:id="rId1"/>
-    <sheet name="RCP Alloc Chart" sheetId="8" r:id="rId2"/>
+    <sheet name="RCP Alloc Chart" sheetId="8" r:id="rId1"/>
+    <sheet name="RCP Timings Chart" sheetId="5" r:id="rId2"/>
     <sheet name="RCP Timings" sheetId="6" r:id="rId3"/>
     <sheet name="RCP GCC" sheetId="3" r:id="rId4"/>
     <sheet name="RCP ICC" sheetId="2" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="75">
   <si>
     <t>***</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Zero overhead</t>
+  </si>
+  <si>
+    <t>MSVC++ 2008</t>
   </si>
 </sst>
 </file>
@@ -322,722 +325,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18632174103237092"/>
-          <c:y val="6.8167468649752108E-2"/>
-          <c:w val="0.68769356955380578"/>
-          <c:h val="0.7073840769903762"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.1178119999999997E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1151580000000005E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9191810000000004E-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.2385720000000002E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.325987E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.224365E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.1257459999999997E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.242242E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5891580000000004E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="88557440"/>
-        <c:axId val="88558976"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="88557440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88558976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="88558976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000005E-8"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CPU Time (sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88557440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18632174103237095"/>
-          <c:y val="6.8167468649752108E-2"/>
-          <c:w val="0.68769356955380589"/>
-          <c:h val="0.70738407699037631"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$10:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.9140170000000004E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.91194E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6780410000000004E-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$11:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.8416750000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9246339999999995E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0506770000000003E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$12:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.6587470000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7416910000000005E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7975740000000003E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="92398720"/>
-        <c:axId val="92400256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="92398720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92400256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92400256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000005E-8"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CPU Time (sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92398720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18632174103237098"/>
-          <c:y val="6.8167468649752108E-2"/>
-          <c:w val="0.68769356955380601"/>
-          <c:h val="0.70738407699037642"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Raw</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$16:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.035711E-9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.032826E-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.442698E-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$17:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0385960000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0385960000000001E-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1838250000000001E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RCP Timings'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Deref</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ArrowOp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Assign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'RCP Timings'!$B$18:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.9528200000000002E-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9239699999999998E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.269575E-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="93144192"/>
-        <c:axId val="101496704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="93144192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101496704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="101496704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CPU Time (sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93144192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.17064495941566024"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.68670365492569652"/>
@@ -1073,7 +360,7 @@
                   <c:v>ICC 10.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MSVC++ 2009</c:v>
+                  <c:v>MSVC++ 2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1123,7 +410,7 @@
                   <c:v>ICC 10.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MSVC++ 2009</c:v>
+                  <c:v>MSVC++ 2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1173,7 +460,7 @@
                   <c:v>ICC 10.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MSVC++ 2009</c:v>
+                  <c:v>MSVC++ 2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1267,7 +554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1468,7 +755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MSVC++ 2009</c:v>
+                  <c:v>MSVC++ 2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1730,277 +1017,723 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18632174103237092"/>
+          <c:y val="6.8167468649752108E-2"/>
+          <c:w val="0.68769356955380578"/>
+          <c:h val="0.7073840769903762"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1178119999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1151580000000005E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9191810000000004E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2385720000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.325987E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.224365E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1257459999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.242242E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5891580000000004E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="88557440"/>
+        <c:axId val="88558976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88557440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88558976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88558976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000005E-8"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88557440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.375</cdr:x>
-      <cdr:y>0.87847</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.5875</cdr:x>
-      <cdr:y>0.98264</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1714500" y="2409825"/>
-          <a:ext cx="971550" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>a) GCC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 4.1.2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18632174103237095"/>
+          <c:y val="6.8167468649752108E-2"/>
+          <c:w val="0.68769356955380589"/>
+          <c:h val="0.70738407699037631"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9140170000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.91194E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6780410000000004E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8416750000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9246339999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0506770000000003E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$9:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6587470000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7416910000000005E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7975740000000003E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="92398720"/>
+        <c:axId val="92400256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92398720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92400256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92400256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000005E-8"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92398720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.375</cdr:x>
-      <cdr:y>0.87847</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.5875</cdr:x>
-      <cdr:y>0.98264</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1714500" y="2409825"/>
-          <a:ext cx="971550" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>b) ICC </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>10.1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.375</cdr:x>
-      <cdr:y>0.87847</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.5875</cdr:x>
-      <cdr:y>0.98264</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1714500" y="2409825"/>
-          <a:ext cx="971550" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>b) ICC </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>10.1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18632174103237098"/>
+          <c:y val="6.8167468649752108E-2"/>
+          <c:w val="0.68769356955380601"/>
+          <c:h val="0.70738407699037642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.035711E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.032826E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.442698E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0385960000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0385960000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1838250000000001E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCP Timings'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RCP Timings'!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Deref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ArrowOp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Assign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCP Timings'!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9528200000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9239699999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.269575E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="93144192"/>
+        <c:axId val="101496704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93144192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101496704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101496704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93144192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.375</cdr:x>
-      <cdr:y>0.87847</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.5875</cdr:x>
-      <cdr:y>0.98264</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1714500" y="2409825"/>
-          <a:ext cx="971550" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>c)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>  MSVC++ 2009</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2283,6 +2016,276 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.375</cdr:x>
+      <cdr:y>0.87847</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5875</cdr:x>
+      <cdr:y>0.98264</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1714500" y="2409825"/>
+          <a:ext cx="971550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a) GCC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 4.1.2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.375</cdr:x>
+      <cdr:y>0.87847</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5875</cdr:x>
+      <cdr:y>0.98264</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1714500" y="2409825"/>
+          <a:ext cx="971550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>b) ICC </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>10.1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.375</cdr:x>
+      <cdr:y>0.87847</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5875</cdr:x>
+      <cdr:y>0.98264</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1714500" y="2409825"/>
+          <a:ext cx="971550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>b) ICC </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>10.1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.375</cdr:x>
+      <cdr:y>0.87847</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5875</cdr:x>
+      <cdr:y>0.98264</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1714500" y="2409825"/>
+          <a:ext cx="971550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>c)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  MSVC++ 2008</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2580,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2596,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2613,7 +2616,7 @@
   <dimension ref="A2:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2839,7 +2842,7 @@
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2912,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
+++ b/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9495" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9495" tabRatio="745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RCP Alloc Chart" sheetId="8" r:id="rId1"/>
@@ -13,8 +13,24 @@
     <sheet name="RCP GCC" sheetId="3" r:id="rId4"/>
     <sheet name="RCP ICC" sheetId="2" r:id="rId5"/>
     <sheet name="RCP MSVC" sheetId="1" r:id="rId6"/>
+    <sheet name="Array Timings Chart" sheetId="13" r:id="rId7"/>
+    <sheet name="Array Timings" sheetId="12" r:id="rId8"/>
+    <sheet name="Array GCC" sheetId="9" r:id="rId9"/>
+    <sheet name="Array ICC" sheetId="10" r:id="rId10"/>
+    <sheet name="Array MSVC" sheetId="11" r:id="rId11"/>
+    <sheet name="Temp" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="Teuchos_Array_PerformanceTest" localSheetId="8">'Array GCC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest" localSheetId="9">'Array ICC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest" localSheetId="10">'Array MSVC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_1" localSheetId="8">'Array GCC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_1" localSheetId="9">'Array ICC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_1" localSheetId="10">'Array MSVC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_1" localSheetId="11">Temp!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_2" localSheetId="9">'Array ICC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_2" localSheetId="10">'Array MSVC'!$A$1:$A$135</definedName>
+    <definedName name="Teuchos_Array_PerformanceTest_3" localSheetId="10">'Array MSVC'!$A$1:$A$135</definedName>
     <definedName name="Teuchos_RCP_PerformanceTest" localSheetId="4">'RCP ICC'!$A$1:$A$93</definedName>
     <definedName name="Teuchos_RCP_PerformanceTest" localSheetId="5">'RCP MSVC'!$A$1:$A$93</definedName>
   </definedNames>
@@ -24,14 +40,84 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Teuchos_RCP_PerformanceTest" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="Teuchos_Array_PerformanceTest" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\GCC4\results2\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Teuchos_Array_PerformanceTest1" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\ICC\results2\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="Teuchos_Array_PerformanceTest2" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\MSVC\results3\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="Teuchos_Array_PerformanceTest3" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\MSVC\results1\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="Teuchos_Array_PerformanceTest31" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\GCC4\results2\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="Teuchos_Array_PerformanceTest32" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\ICC\results2\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="Teuchos_Array_PerformanceTest33" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\MSVC\results3\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="Teuchos_Array_PerformanceTest34" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\ICC\results2\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="Teuchos_Array_PerformanceTest35" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\MSVC\results3\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="Teuchos_Array_PerformanceTest36" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\MSVC\results1\Teuchos_Array_PerformanceTest.out" tab="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="Teuchos_RCP_PerformanceTest" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\ICC\results2\Teuchos_RCP_PerformanceTest.out" tab="0">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Teuchos_RCP_PerformanceTest1" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="12" name="Teuchos_RCP_PerformanceTest1" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\_mystuff\Publications\Publications\TeuchosMemoryManagementSAND\results\UnitTimings\MSVC\results3\Teuchos_RCP_PerformanceTest.out" tab="0">
       <textFields>
         <textField/>
@@ -42,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="152">
   <si>
     <t>***</t>
   </si>
@@ -267,6 +353,237 @@
   </si>
   <si>
     <t>MSVC++ 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0. Array_braketOperatorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the Array braket operator relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of loops = relCpuSpeed/relTestCost = 5e+03/0.0001 = 5e+07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Array_iteratorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the Array iterators relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. ArrayRCP_braketOperatorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the ArrayRCP braket operator relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. ArrayRCP_iteratorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the ArrayRCP iterators relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. ArrayRCP_selfIteratorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the ArrayRCP as a self iterataor relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.55 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. ArrayView_braketOperatorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the ArrayView braket operator relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   array dim  num loops  raw ptr         ArrayView       ArrayView/raw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. ArrayView_iteratorOverhead_UnitTest ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring the overhead of the ArrayView iterators relative to raw pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.16 sec)</t>
+  </si>
+  <si>
+    <t>Summary: total = 7, run = 7, passed = 7, failed = 0</t>
+  </si>
+  <si>
+    <t>raw ptr</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>vector/raw</t>
+  </si>
+  <si>
+    <t>Array/raw</t>
+  </si>
+  <si>
+    <t>ArrayRCP</t>
+  </si>
+  <si>
+    <t>ArrayRCP/raw</t>
+  </si>
+  <si>
+    <t>ArrayView</t>
+  </si>
+  <si>
+    <t>ArrayView/raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.2 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of loops = relCpuSpeed/relTestCost = 5e+003/0.0001 = 5e+007</t>
+  </si>
+  <si>
+    <t>operator[](i)</t>
+  </si>
+  <si>
+    <t>++itr, *itr</t>
+  </si>
+  <si>
+    <t>Raw Ptr</t>
+  </si>
+  <si>
+    <t>GCC 4.1.2 (array dim = 1600)</t>
+  </si>
+  <si>
+    <t>ICC 4.1.2 (array dim = 1600)</t>
+  </si>
+  <si>
+    <t>MSVC++ 2008 (array dim = 1600)</t>
+  </si>
+  <si>
+    <t>Sorting tests by group name then by test name ... (time = 5e-06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayBraketRatio = 0.985 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.72 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayIterRatio = 0.998 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.8 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPBraketRatio = 0.963 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPIterRatio = 1 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPIterRatio = 1.3 &lt;= maxArrayRCPSelfIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayViewBraketRatio = 0.919 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayViewIterRatio = 0.992 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t>Total Time: 9.75 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.87 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (3.87 sec)</t>
+  </si>
+  <si>
+    <t>std::vector</t>
+  </si>
+  <si>
+    <t>Sorting tests by group name then by test name ... (time = 7e-06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayBraketRatio = 1.21 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (4.37 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayIterRatio = 0.972 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (2.73 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPBraketRatio = 1.44 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (2.54 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPIterRatio = 0.969 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.14 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPIterRatio = 4.13 &lt;= maxArrayRCPSelfIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (3.24 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayViewBraketRatio = 1.43 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (2.56 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayViewIterRatio = 1 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.15 sec)</t>
+  </si>
+  <si>
+    <t>Total Time: 17.7 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayBraketRatio = 0.676 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayIterRatio = 0.987 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.82 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPBraketRatio = 1.54 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.77 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPIterRatio = 0.968 &lt;= maxArrayIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.22 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayRCPIterRatio = 4.49 &lt;= maxArrayRCPSelfIterRatio = 50 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalArrayViewBraketRatio = 0.992 &lt;= maxArrayBracketRatio = 30 : passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Passed] (1.19 sec)</t>
+  </si>
+  <si>
+    <t>Total Time: 13 sec</t>
   </si>
 </sst>
 </file>
@@ -302,10 +619,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +645,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17064495941566024"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.68670365492569652"/>
+          <c:w val="0.68670365492569663"/>
           <c:h val="0.71026210265383494"/>
         </c:manualLayout>
       </c:layout>
@@ -484,24 +802,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94251264"/>
-        <c:axId val="101491456"/>
+        <c:axId val="63644032"/>
+        <c:axId val="63645568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94251264"/>
+        <c:axId val="63644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101491456"/>
+        <c:crossAx val="63645568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101491456"/>
+        <c:axId val="63645568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +845,7 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94251264"/>
+        <c:crossAx val="63644032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -548,7 +866,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -564,7 +882,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17671572855513201"/>
+          <c:x val="0.17671572855513204"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.57701807592072196"/>
           <c:h val="0.61303988043161273"/>
@@ -932,11 +1250,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101493376"/>
-        <c:axId val="94382720"/>
+        <c:axId val="71459968"/>
+        <c:axId val="71462272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101493376"/>
+        <c:axId val="71459968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -962,12 +1280,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94382720"/>
+        <c:crossAx val="71462272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94382720"/>
+        <c:axId val="71462272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -993,7 +1311,7 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101493376"/>
+        <c:crossAx val="71459968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1011,7 +1329,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1027,10 +1345,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18632174103237092"/>
+          <c:x val="0.18632174103237095"/>
           <c:y val="6.8167468649752108E-2"/>
-          <c:w val="0.68769356955380578"/>
-          <c:h val="0.7073840769903762"/>
+          <c:w val="0.68769356955380589"/>
+          <c:h val="0.70738407699037631"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1186,27 +1504,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88557440"/>
-        <c:axId val="88558976"/>
+        <c:axId val="71483776"/>
+        <c:axId val="71485312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88557440"/>
+        <c:axId val="71483776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88558976"/>
+        <c:crossAx val="71485312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88558976"/>
+        <c:axId val="71485312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000005E-8"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1231,9 +1550,11 @@
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88557440"/>
+        <c:crossAx val="71483776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.000000000000001E-9"/>
+        <c:minorUnit val="4.0000000000000022E-10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1249,7 +1570,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1266,10 +1587,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18632174103237095"/>
+          <c:x val="0.18632174103237098"/>
           <c:y val="6.8167468649752108E-2"/>
-          <c:w val="0.68769356955380589"/>
-          <c:h val="0.70738407699037631"/>
+          <c:w val="0.68769356955380601"/>
+          <c:h val="0.70738407699037642"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1425,27 +1746,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92398720"/>
-        <c:axId val="92400256"/>
+        <c:axId val="64986112"/>
+        <c:axId val="64996096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92398720"/>
+        <c:axId val="64986112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92400256"/>
+        <c:crossAx val="64996096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92400256"/>
+        <c:axId val="64996096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000005E-8"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1470,9 +1792,11 @@
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92398720"/>
+        <c:crossAx val="64986112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.000000000000001E-9"/>
+        <c:minorUnit val="4.0000000000000022E-10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1488,7 +1812,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1505,10 +1829,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18632174103237098"/>
+          <c:x val="0.18632174103237101"/>
           <c:y val="6.8167468649752108E-2"/>
-          <c:w val="0.68769356955380601"/>
-          <c:h val="0.70738407699037642"/>
+          <c:w val="0.68769356955380612"/>
+          <c:h val="0.70738407699037653"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1664,26 +1988,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93144192"/>
-        <c:axId val="101496704"/>
+        <c:axId val="71837568"/>
+        <c:axId val="71839104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93144192"/>
+        <c:axId val="71837568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101496704"/>
+        <c:crossAx val="71839104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101496704"/>
+        <c:axId val="71839104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4000000000000005E-8"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1708,9 +2034,11 @@
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93144192"/>
+        <c:crossAx val="71837568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.000000000000001E-9"/>
+        <c:minorUnit val="4.0000000000000022E-10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1726,7 +2054,652 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1687345391730187"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.65158595590886603"/>
+          <c:h val="0.72415099154272378"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Array Timings'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>operator[](i)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Array Timings'!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Raw Ptr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>std::vector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Array</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ArrayRCP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ArrayView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Array Timings'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4754569999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4759989999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4762699999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4868690000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4741560000000002E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Array Timings'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>++itr, *itr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Array Timings'!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Raw Ptr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>std::vector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Array</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ArrayRCP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ArrayView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Array Timings'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.498009E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7967750000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7970460000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4889019999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.493184E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="68046848"/>
+        <c:axId val="68048384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68046848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68048384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68048384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4000000000000005E-9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68046848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000011E-10"/>
+        <c:minorUnit val="4.0000000000000023E-11"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1687345391730187"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.65158595590886603"/>
+          <c:h val="0.72415099154272378"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Array Timings'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>operator[](i)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Array Timings'!$B$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Raw Ptr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>std::vector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Array</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ArrayRCP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ArrayView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Array Timings'!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0174049999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1544339999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1729069999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1710879999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1601290000000001E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Array Timings'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>++itr, *itr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Array Timings'!$B$8:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Raw Ptr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>std::vector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Array</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ArrayRCP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ArrayView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Array Timings'!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5897369999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6539100000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6290269999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.575994E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6227790000000002E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="85321216"/>
+        <c:axId val="85322752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85321216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85322752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85322752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4000000000000005E-9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85321216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000011E-10"/>
+        <c:minorUnit val="4.0000000000000023E-11"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1687345391730187"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.65158595590886603"/>
+          <c:h val="0.72415099154272378"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Array Timings'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>operator[](i)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Array Timings'!$B$13:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Raw Ptr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>std::vector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Array</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ArrayRCP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ArrayView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Array Timings'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5238140000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.605133E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5509210000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3758360000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.605133E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Array Timings'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>++itr, *itr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Array Timings'!$B$13:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Raw Ptr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>std::vector</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Array</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ArrayRCP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ArrayView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Array Timings'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5509210000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7948769999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6593460000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5780269999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5238140000000001E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="86553728"/>
+        <c:axId val="85312256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86553728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85312256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85312256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4000000000000005E-9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86553728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000011E-10"/>
+        <c:minorUnit val="4.0000000000000023E-11"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2288,12 +3261,413 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14217</cdr:x>
+      <cdr:y>0.91319</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82428</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="771890" y="1828998"/>
+          <a:ext cx="3703338" cy="173633"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a) GCC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 4.1.2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14217</cdr:x>
+      <cdr:y>0.9132</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82428</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="771876" y="1829003"/>
+          <a:ext cx="3703346" cy="173622"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>b) ICC 10.1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14568</cdr:x>
+      <cdr:y>0.9132</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82779</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="790926" y="1848053"/>
+          <a:ext cx="3703346" cy="173622"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>c) MSVC++ 2008</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_RCP_PerformanceTest" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_RCP_PerformanceTest" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_RCP_PerformanceTest" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_RCP_PerformanceTest" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Teuchos_Array_PerformanceTest_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2595,12 +3969,3766 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2307560</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.0416720000000003E-10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0922009999999999E-9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.0922100000000001E-9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.207964</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.207973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21">
+        <v>749245</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.9956889999999999E-10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.207742E-9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.121359E-9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.342579</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.246551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1600</v>
+      </c>
+      <c r="B22">
+        <v>230574</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.8166109999999997E-10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.1544339999999999E-9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1729069999999999E-9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.309385</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.330338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>6400</v>
+      </c>
+      <c r="B23">
+        <v>68470</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9.4662119999999995E-10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.2408220000000001E-9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.2523660000000001E-9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.3107899999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.322986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>2307560</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.0931889999999998E-10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.3348299999999999E-10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.9217959999999999E-10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.0396570000000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.97187140000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>749245</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.8623079999999996E-10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6.9416209999999996E-10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.7954409999999998E-10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.011558</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.99025589999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>1600</v>
+      </c>
+      <c r="B39">
+        <v>230574</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.5438050000000002E-10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.6539100000000002E-10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6.6290269999999999E-10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.016826</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.013023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>6400</v>
+      </c>
+      <c r="B40">
+        <v>68470</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7.2612779999999997E-10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.3128289999999997E-10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7.2594519999999998E-10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.007099</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.99974859999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>2307560</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7.5651769999999998E-10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.091967E-9</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.4434130000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55">
+        <v>749245</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7.0615419999999998E-10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.1161700000000001E-9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.580633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1600</v>
+      </c>
+      <c r="B56">
+        <v>230574</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6.9434319999999999E-10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.1710879999999999E-9</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.6866129999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>6400</v>
+      </c>
+      <c r="B57">
+        <v>68470</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6.937756E-10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.305848E-9</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.882234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71">
+        <v>2307560</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3.6589299999999999E-10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.7654060000000001E-10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.0290999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>400</v>
+      </c>
+      <c r="B72">
+        <v>749245</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.7896819999999998E-10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.671329E-10</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.96876980000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1600</v>
+      </c>
+      <c r="B73">
+        <v>230574</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.5750449999999999E-10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.575994E-10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.000265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>6400</v>
+      </c>
+      <c r="B74">
+        <v>68470</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.4859340000000001E-10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5.4847930000000004E-10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.99979200000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>2307560</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.7294800000000002E-10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.878863E-9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5.0378689999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>400</v>
+      </c>
+      <c r="B89">
+        <v>749245</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3.9197460000000001E-10</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.754433E-9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4.4758839999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1600</v>
+      </c>
+      <c r="B90">
+        <v>230574</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.606841E-10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.9223980000000001E-9</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5.329866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>6400</v>
+      </c>
+      <c r="B91">
+        <v>68470</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.4741579999999996E-10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2.2629369999999999E-9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4.1338530000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>2307560</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7.6357709999999997E-10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.092032E-9</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1.430153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <v>749245</v>
+      </c>
+      <c r="C106" s="1">
+        <v>7.1555700000000003E-10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.1210490000000001E-9</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.5666800000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>1600</v>
+      </c>
+      <c r="B107">
+        <v>230574</v>
+      </c>
+      <c r="C107" s="1">
+        <v>7.0174049999999995E-10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.1601290000000001E-9</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.6532169999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6400</v>
+      </c>
+      <c r="B108">
+        <v>68470</v>
+      </c>
+      <c r="C108" s="1">
+        <v>7.7708069999999998E-10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1.261093E-9</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1.62286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>2307560</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.6294610000000002E-10</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3.7654929999999999E-10</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1.03748</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>400</v>
+      </c>
+      <c r="B123">
+        <v>749245</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.7724309999999999E-10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3.9367629999999999E-10</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1.043561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>1600</v>
+      </c>
+      <c r="B124">
+        <v>230574</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.5897369999999999E-10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.6227790000000002E-10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1.0092049999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>6400</v>
+      </c>
+      <c r="B125">
+        <v>68470</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5.4779919999999996E-10</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5.4795900000000003E-10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.000292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2307560</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.7571110000000004E-10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.1103500000000005E-10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.2436339999999998E-10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.78770949999999995</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.67597770000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21">
+        <v>749245</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.8038289999999998E-10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.8371960000000002E-10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.0373979999999998E-10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.008772</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.061404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1600</v>
+      </c>
+      <c r="B22">
+        <v>230574</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.5238140000000001E-10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.605133E-10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.023077</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.007692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>6400</v>
+      </c>
+      <c r="B23">
+        <v>68470</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.2030090000000003E-10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1573680000000003E-10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5.2258289999999996E-10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.99122809999999995</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.004386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>2307560</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.4169769999999999E-10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.3736409999999996E-10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.5469849999999999E-10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>749245</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.9039300000000001E-10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.8371960000000002E-10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.9039300000000001E-10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.98290599999999995</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>1600</v>
+      </c>
+      <c r="B39">
+        <v>230574</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.7948769999999999E-10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.6593460000000002E-10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.068702</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0305340000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>6400</v>
+      </c>
+      <c r="B40">
+        <v>68470</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.2942889999999996E-10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.2030090000000003E-10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.2258289999999996E-10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.98275860000000004</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.98706899999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>2307560</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.3303059999999995E-10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8.7538350000000001E-10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.6422760000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55">
+        <v>749245</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.9383049999999999E-10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.6420329999999999E-10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1600</v>
+      </c>
+      <c r="B56">
+        <v>230574</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.605133E-10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.3758360000000003E-10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.3233079999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>6400</v>
+      </c>
+      <c r="B57">
+        <v>68470</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.3171100000000003E-10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8.1696360000000005E-10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.536481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71">
+        <v>2307560</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>400</v>
+      </c>
+      <c r="B72">
+        <v>749245</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.1708650000000003E-10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4.0373979999999998E-10</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1600</v>
+      </c>
+      <c r="B73">
+        <v>230574</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>6400</v>
+      </c>
+      <c r="B74">
+        <v>68470</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.2030090000000003E-10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5.3399299999999996E-10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.026316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>2307560</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2.4528069999999998E-9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4.4920629999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>400</v>
+      </c>
+      <c r="B89">
+        <v>749245</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4.904938E-10</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2.3757250000000001E-9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4.8435370000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1600</v>
+      </c>
+      <c r="B90">
+        <v>230574</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2.3555340000000001E-9</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6.5833329999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>6400</v>
+      </c>
+      <c r="B91">
+        <v>68470</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.3627499999999999E-10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2.4714290000000001E-9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4.608511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>2307560</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5.3303059999999995E-10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5.2869700000000002E-10</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.99186989999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <v>749245</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.8038289999999998E-10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4.0040309999999999E-10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.052632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>1600</v>
+      </c>
+      <c r="B107">
+        <v>230574</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3.605133E-10</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.0152669999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6400</v>
+      </c>
+      <c r="B108">
+        <v>68470</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5.1117279999999997E-10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5.1801879999999996E-10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1.013393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>2307560</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5.3736409999999996E-10</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1.0161290000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>400</v>
+      </c>
+      <c r="B123">
+        <v>749245</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.9706639999999999E-10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3.9706639999999999E-10</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>1600</v>
+      </c>
+      <c r="B124">
+        <v>230574</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.5238140000000001E-10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.99236639999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>6400</v>
+      </c>
+      <c r="B125">
+        <v>68470</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5.2942889999999996E-10</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5.4083909999999999E-10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.021552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2307560</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.7571110000000004E-10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.1103500000000005E-10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.2436339999999998E-10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.78770949999999995</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.67597770000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21">
+        <v>749245</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.8038289999999998E-10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.8371960000000002E-10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.0373979999999998E-10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.008772</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.061404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1600</v>
+      </c>
+      <c r="B22">
+        <v>230574</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.5238140000000001E-10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.605133E-10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.023077</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.007692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>6400</v>
+      </c>
+      <c r="B23">
+        <v>68470</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.2030090000000003E-10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1573680000000003E-10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5.2258289999999996E-10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.99122809999999995</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.004386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>2307560</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.4169769999999999E-10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.3736409999999996E-10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.5469849999999999E-10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>749245</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.9039300000000001E-10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.8371960000000002E-10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.9039300000000001E-10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.98290599999999995</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>1600</v>
+      </c>
+      <c r="B39">
+        <v>230574</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.7948769999999999E-10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.6593460000000002E-10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.068702</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0305340000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>6400</v>
+      </c>
+      <c r="B40">
+        <v>68470</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.2942889999999996E-10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.2030090000000003E-10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.2258289999999996E-10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.98275860000000004</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.98706899999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>2307560</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.3303059999999995E-10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8.7538350000000001E-10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.6422760000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55">
+        <v>749245</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.9383049999999999E-10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.6420329999999999E-10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1600</v>
+      </c>
+      <c r="B56">
+        <v>230574</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.605133E-10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.3758360000000003E-10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.3233079999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>6400</v>
+      </c>
+      <c r="B57">
+        <v>68470</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.3171100000000003E-10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8.1696360000000005E-10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.536481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71">
+        <v>2307560</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>400</v>
+      </c>
+      <c r="B72">
+        <v>749245</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.1708650000000003E-10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4.0373979999999998E-10</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1600</v>
+      </c>
+      <c r="B73">
+        <v>230574</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>6400</v>
+      </c>
+      <c r="B74">
+        <v>68470</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.2030090000000003E-10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5.3399299999999996E-10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.026316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>2307560</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2.4528069999999998E-9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4.4920629999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>400</v>
+      </c>
+      <c r="B89">
+        <v>749245</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4.904938E-10</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2.3757250000000001E-9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4.8435370000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1600</v>
+      </c>
+      <c r="B90">
+        <v>230574</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2.3555340000000001E-9</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6.5833329999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>6400</v>
+      </c>
+      <c r="B91">
+        <v>68470</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.3627499999999999E-10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2.4714290000000001E-9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4.608511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>2307560</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5.3303059999999995E-10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5.2869700000000002E-10</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.99186989999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <v>749245</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.8038289999999998E-10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4.0040309999999999E-10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.052632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>1600</v>
+      </c>
+      <c r="B107">
+        <v>230574</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3.605133E-10</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.0152669999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6400</v>
+      </c>
+      <c r="B108">
+        <v>68470</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5.1117279999999997E-10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5.1801879999999996E-10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1.013393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>2307560</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5.3736409999999996E-10</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5.4603130000000003E-10</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1.0161290000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>400</v>
+      </c>
+      <c r="B123">
+        <v>749245</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.9706639999999999E-10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3.9706639999999999E-10</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>1600</v>
+      </c>
+      <c r="B124">
+        <v>230574</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.5238140000000001E-10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.99236639999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>6400</v>
+      </c>
+      <c r="B125">
+        <v>68470</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5.2942889999999996E-10</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5.4083909999999999E-10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.021552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,7 +7743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5239,7 +10367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -6292,4 +11420,1445 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N29" sqref="N28:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'Array GCC'!C$22</f>
+        <v>3.4754569999999998E-10</v>
+      </c>
+      <c r="C4" s="1">
+        <f>'Array GCC'!D$22</f>
+        <v>3.4759989999999999E-10</v>
+      </c>
+      <c r="D4" s="1">
+        <f>'Array GCC'!E$22</f>
+        <v>3.4762699999999999E-10</v>
+      </c>
+      <c r="E4" s="1">
+        <f>'Array GCC'!D$56</f>
+        <v>3.4868690000000001E-10</v>
+      </c>
+      <c r="F4" s="1">
+        <f>'Array GCC'!D$107</f>
+        <v>3.4741560000000002E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="3">
+        <f>'Array GCC'!C$39</f>
+        <v>3.498009E-10</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'Array GCC'!D$39</f>
+        <v>3.7967750000000001E-10</v>
+      </c>
+      <c r="D5" s="1">
+        <f>'Array GCC'!E$39</f>
+        <v>3.7970460000000001E-10</v>
+      </c>
+      <c r="E5" s="1">
+        <f>'Array GCC'!D$73</f>
+        <v>3.4889019999999998E-10</v>
+      </c>
+      <c r="F5" s="1">
+        <f>'Array GCC'!D$124</f>
+        <v>3.493184E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1">
+        <f>'Array ICC'!C$107</f>
+        <v>7.0174049999999995E-10</v>
+      </c>
+      <c r="C9" s="1">
+        <f>'Array ICC'!D$22</f>
+        <v>1.1544339999999999E-9</v>
+      </c>
+      <c r="D9" s="1">
+        <f>'Array ICC'!E$22</f>
+        <v>1.1729069999999999E-9</v>
+      </c>
+      <c r="E9" s="1">
+        <f>'Array ICC'!D$56</f>
+        <v>1.1710879999999999E-9</v>
+      </c>
+      <c r="F9" s="1">
+        <f>'Array ICC'!D$107</f>
+        <v>1.1601290000000001E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3">
+        <f>'Array ICC'!C$124</f>
+        <v>3.5897369999999999E-10</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'Array ICC'!D$39</f>
+        <v>6.6539100000000002E-10</v>
+      </c>
+      <c r="D10" s="1">
+        <f>'Array ICC'!E$39</f>
+        <v>6.6290269999999999E-10</v>
+      </c>
+      <c r="E10" s="1">
+        <f>'Array ICC'!D$73</f>
+        <v>3.575994E-10</v>
+      </c>
+      <c r="F10" s="1">
+        <f>'Array ICC'!D$124</f>
+        <v>3.6227790000000002E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1">
+        <f>'Array MSVC'!C$22</f>
+        <v>3.5238140000000001E-10</v>
+      </c>
+      <c r="C14" s="1">
+        <f>'Array MSVC'!D$22</f>
+        <v>3.605133E-10</v>
+      </c>
+      <c r="D14" s="1">
+        <f>'Array MSVC'!E$22</f>
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="E14" s="1">
+        <f>'Array MSVC'!D$56</f>
+        <v>8.3758360000000003E-10</v>
+      </c>
+      <c r="F14" s="1">
+        <f>'Array MSVC'!D$107</f>
+        <v>3.605133E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <f>'Array MSVC'!C$39</f>
+        <v>3.5509210000000001E-10</v>
+      </c>
+      <c r="C15" s="3">
+        <f>'Array MSVC'!D$39</f>
+        <v>3.7948769999999999E-10</v>
+      </c>
+      <c r="D15" s="1">
+        <f>'Array MSVC'!E$39</f>
+        <v>3.6593460000000002E-10</v>
+      </c>
+      <c r="E15" s="1">
+        <f>'Array MSVC'!D$73</f>
+        <v>3.5780269999999998E-10</v>
+      </c>
+      <c r="F15" s="1">
+        <f>'Array MSVC'!D$124</f>
+        <v>3.5238140000000001E-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2307560</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.2440070000000002E-10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.2441369999999998E-10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.2444400000000002E-10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.0000309999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.000102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>400</v>
+      </c>
+      <c r="B21">
+        <v>749245</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.6318560000000001E-10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.6290529999999999E-10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.6297870000000002E-10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.99922829999999996</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.99943040000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1600</v>
+      </c>
+      <c r="B22">
+        <v>230574</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.4754569999999998E-10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.4759989999999999E-10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.4762699999999999E-10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.000156</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0002340000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>6400</v>
+      </c>
+      <c r="B23">
+        <v>68470</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.4508819999999997E-10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.4520910000000005E-10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5.3671539999999996E-10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.0002219999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.98463970000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>2307560</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.6206379999999998E-10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.7252510000000001E-10</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4.7573630000000001E-10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.02264</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.02959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>749245</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.7222469999999998E-10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.9796729999999999E-10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.9894160000000001E-10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.069159</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.0717760000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>1600</v>
+      </c>
+      <c r="B39">
+        <v>230574</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.498009E-10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.7967750000000001E-10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.7970460000000001E-10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.08541</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.085488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>6400</v>
+      </c>
+      <c r="B40">
+        <v>68470</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.4655780000000005E-10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.4508130000000005E-10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.4549670000000001E-10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.99729860000000004</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.99805849999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>2307560</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4.6205519999999997E-10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.4497219999999999E-10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.96302829999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55">
+        <v>749245</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.7227479999999998E-10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.6809719999999999E-10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.9887783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1600</v>
+      </c>
+      <c r="B56">
+        <v>230574</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.498687E-10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.4868690000000001E-10</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.99662209999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>6400</v>
+      </c>
+      <c r="B57">
+        <v>68470</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.456381E-10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6.2593330000000005E-10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.1471579999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71">
+        <v>2307560</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4.4147500000000002E-10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4.451065E-10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.0082260000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>400</v>
+      </c>
+      <c r="B72">
+        <v>749245</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.670995E-10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.6795709999999999E-10</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.0023359999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1600</v>
+      </c>
+      <c r="B73">
+        <v>230574</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.4854050000000002E-10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.4889019999999998E-10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.0010030000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>6400</v>
+      </c>
+      <c r="B74">
+        <v>68470</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.4485309999999999E-10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5.4520680000000004E-10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.0006489999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>2307560</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4.5876160000000002E-10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>8.3860869999999996E-10</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.8279840000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>400</v>
+      </c>
+      <c r="B89">
+        <v>749245</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3.7137049999999998E-10</v>
+      </c>
+      <c r="D89" s="1">
+        <v>7.2345829999999998E-10</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.9480770000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1600</v>
+      </c>
+      <c r="B90">
+        <v>230574</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.49725E-10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6.9453839999999997E-10</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.9859560000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>6400</v>
+      </c>
+      <c r="B91">
+        <v>68470</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.2974609999999995E-10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6.887003E-10</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.300057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>2307560</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4.6210720000000001E-10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4.2445699999999997E-10</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.91852500000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <v>749245</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.7228140000000001E-10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3.627618E-10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.97442910000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>1600</v>
+      </c>
+      <c r="B107">
+        <v>230574</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.4992829999999998E-10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3.4741560000000002E-10</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.99281920000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>6400</v>
+      </c>
+      <c r="B108">
+        <v>68470</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5.4559939999999997E-10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5.3698239999999998E-10</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.98420649999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122">
+        <v>2307560</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4.5883960000000002E-10</v>
+      </c>
+      <c r="D122" s="1">
+        <v>4.5522540000000002E-10</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.99212319999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>400</v>
+      </c>
+      <c r="B123">
+        <v>749245</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.7160740000000002E-10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3.70523E-10</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.99708180000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>1600</v>
+      </c>
+      <c r="B124">
+        <v>230574</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.495732E-10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.493184E-10</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.99927109999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>6400</v>
+      </c>
+      <c r="B125">
+        <v>68470</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5.2991960000000004E-10</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5.4532550000000003E-10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.029072</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
+++ b/memory_management_report/results/UnitTimings/UnitTestsResults.xlsx
@@ -1524,7 +1524,7 @@
         <c:axId val="71485312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000005E-8"/>
+          <c:max val="1.4000000000000005E-8"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1766,7 +1766,7 @@
         <c:axId val="64996096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000005E-8"/>
+          <c:max val="1.4000000000000005E-8"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -7728,7 +7728,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11426,8 +11426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N29" sqref="N28:N29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11680,8 +11680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
